--- a/debug/SEI_debug.xlsx
+++ b/debug/SEI_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE884"/>
+  <dimension ref="A1:AE892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -89910,13 +89910,13 @@
         <v>0.1917</v>
       </c>
       <c r="C884" t="n">
-        <v>0.1967</v>
+        <v>0.2006</v>
       </c>
       <c r="D884" t="n">
         <v>0.189</v>
       </c>
       <c r="E884" t="n">
-        <v>0.1941</v>
+        <v>0.1954</v>
       </c>
       <c r="F884" t="inlineStr">
         <is>
@@ -89954,7 +89954,7 @@
         <v>0.1858</v>
       </c>
       <c r="Q884" t="n">
-        <v>5.866523</v>
+        <v>7.965554</v>
       </c>
       <c r="R884" t="n">
         <v>17.3</v>
@@ -89999,6 +89999,820 @@
       </c>
       <c r="AE884" t="n">
         <v>0.189</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B885" t="n">
+        <v>0.1953</v>
+      </c>
+      <c r="C885" t="n">
+        <v>0.2037</v>
+      </c>
+      <c r="D885" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="E885" t="n">
+        <v>0.1991</v>
+      </c>
+      <c r="F885" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G885" t="b">
+        <v>1</v>
+      </c>
+      <c r="H885" t="n">
+        <v>2</v>
+      </c>
+      <c r="I885" t="n">
+        <v/>
+      </c>
+      <c r="J885" t="n">
+        <v/>
+      </c>
+      <c r="K885" t="n">
+        <v/>
+      </c>
+      <c r="L885" t="n">
+        <v/>
+      </c>
+      <c r="M885" t="n">
+        <v/>
+      </c>
+      <c r="N885" t="n">
+        <v/>
+      </c>
+      <c r="O885" t="n">
+        <v>0.3903</v>
+      </c>
+      <c r="P885" t="n">
+        <v>0.1858</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>9.634015</v>
+      </c>
+      <c r="R885" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S885" t="n">
+        <v>6</v>
+      </c>
+      <c r="T885" t="n">
+        <v>0.218568</v>
+      </c>
+      <c r="U885" t="n">
+        <v>0.202956</v>
+      </c>
+      <c r="V885" t="n">
+        <v>0.179538</v>
+      </c>
+      <c r="W885" t="n">
+        <v>0.160023</v>
+      </c>
+      <c r="X885" t="n">
+        <v>0.136605</v>
+      </c>
+      <c r="Y885" t="n">
+        <v>0.109284</v>
+      </c>
+      <c r="Z885" t="n">
+        <v>0.08196299999999999</v>
+      </c>
+      <c r="AA885" t="n">
+        <v>0.074157</v>
+      </c>
+      <c r="AB885" t="n">
+        <v>0.213246</v>
+      </c>
+      <c r="AC885" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD885" t="n">
+        <v>0.202956</v>
+      </c>
+      <c r="AE885" t="n">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B886" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="C886" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="D886" t="n">
+        <v>0.1903</v>
+      </c>
+      <c r="E886" t="n">
+        <v>0.1917</v>
+      </c>
+      <c r="F886" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G886" t="b">
+        <v>1</v>
+      </c>
+      <c r="H886" t="n">
+        <v>2</v>
+      </c>
+      <c r="I886" t="n">
+        <v/>
+      </c>
+      <c r="J886" t="n">
+        <v/>
+      </c>
+      <c r="K886" t="n">
+        <v/>
+      </c>
+      <c r="L886" t="n">
+        <v/>
+      </c>
+      <c r="M886" t="n">
+        <v/>
+      </c>
+      <c r="N886" t="n">
+        <v/>
+      </c>
+      <c r="O886" t="n">
+        <v>0.3903</v>
+      </c>
+      <c r="P886" t="n">
+        <v>0.1858</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>11.141012</v>
+      </c>
+      <c r="R886" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="S886" t="n">
+        <v>6</v>
+      </c>
+      <c r="T886" t="n">
+        <v>0.218568</v>
+      </c>
+      <c r="U886" t="n">
+        <v>0.202956</v>
+      </c>
+      <c r="V886" t="n">
+        <v>0.179538</v>
+      </c>
+      <c r="W886" t="n">
+        <v>0.160023</v>
+      </c>
+      <c r="X886" t="n">
+        <v>0.136605</v>
+      </c>
+      <c r="Y886" t="n">
+        <v>0.109284</v>
+      </c>
+      <c r="Z886" t="n">
+        <v>0.08196299999999999</v>
+      </c>
+      <c r="AA886" t="n">
+        <v>0.074157</v>
+      </c>
+      <c r="AB886" t="n">
+        <v>0.213246</v>
+      </c>
+      <c r="AC886" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD886" t="n">
+        <v>0.202956</v>
+      </c>
+      <c r="AE886" t="n">
+        <v>0.1903</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B887" t="n">
+        <v>0.1917</v>
+      </c>
+      <c r="C887" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="D887" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="E887" t="n">
+        <v>0.1834</v>
+      </c>
+      <c r="F887" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G887" t="b">
+        <v>1</v>
+      </c>
+      <c r="H887" t="n">
+        <v>3</v>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>ADD B3</t>
+        </is>
+      </c>
+      <c r="J887" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="L887" t="n">
+        <v>0.179538</v>
+      </c>
+      <c r="M887" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="N887" t="n">
+        <v>0.179538</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0.3903</v>
+      </c>
+      <c r="P887" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="Q887" t="n">
+        <v/>
+      </c>
+      <c r="R887" t="n">
+        <v/>
+      </c>
+      <c r="S887" t="n">
+        <v>6</v>
+      </c>
+      <c r="T887" t="n">
+        <v>0.218568</v>
+      </c>
+      <c r="U887" t="n">
+        <v>0.202956</v>
+      </c>
+      <c r="V887" t="n">
+        <v>0.179538</v>
+      </c>
+      <c r="W887" t="n">
+        <v>0.160023</v>
+      </c>
+      <c r="X887" t="n">
+        <v>0.136605</v>
+      </c>
+      <c r="Y887" t="n">
+        <v>0.109284</v>
+      </c>
+      <c r="Z887" t="n">
+        <v>0.08196299999999999</v>
+      </c>
+      <c r="AA887" t="n">
+        <v>0.074157</v>
+      </c>
+      <c r="AB887" t="n">
+        <v>0.213246</v>
+      </c>
+      <c r="AC887" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD887" t="n">
+        <v>0.179538</v>
+      </c>
+      <c r="AE887" t="n">
+        <v>0.1781</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B888" t="n">
+        <v>0.1917</v>
+      </c>
+      <c r="C888" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="D888" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="E888" t="n">
+        <v>0.1834</v>
+      </c>
+      <c r="F888" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G888" t="b">
+        <v>1</v>
+      </c>
+      <c r="H888" t="n">
+        <v>3</v>
+      </c>
+      <c r="I888" t="n">
+        <v/>
+      </c>
+      <c r="J888" t="n">
+        <v/>
+      </c>
+      <c r="K888" t="n">
+        <v/>
+      </c>
+      <c r="L888" t="n">
+        <v/>
+      </c>
+      <c r="M888" t="n">
+        <v/>
+      </c>
+      <c r="N888" t="n">
+        <v/>
+      </c>
+      <c r="O888" t="n">
+        <v>0.3903</v>
+      </c>
+      <c r="P888" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="Q888" t="n">
+        <v>8.366085999999999</v>
+      </c>
+      <c r="R888" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S888" t="n">
+        <v>6</v>
+      </c>
+      <c r="T888" t="n">
+        <v>0.218568</v>
+      </c>
+      <c r="U888" t="n">
+        <v>0.202956</v>
+      </c>
+      <c r="V888" t="n">
+        <v>0.179538</v>
+      </c>
+      <c r="W888" t="n">
+        <v>0.160023</v>
+      </c>
+      <c r="X888" t="n">
+        <v>0.136605</v>
+      </c>
+      <c r="Y888" t="n">
+        <v>0.109284</v>
+      </c>
+      <c r="Z888" t="n">
+        <v>0.08196299999999999</v>
+      </c>
+      <c r="AA888" t="n">
+        <v>0.074157</v>
+      </c>
+      <c r="AB888" t="n">
+        <v>0.213246</v>
+      </c>
+      <c r="AC888" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD888" t="n">
+        <v>0.179538</v>
+      </c>
+      <c r="AE888" t="n">
+        <v>0.1781</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B889" t="n">
+        <v>0.1835</v>
+      </c>
+      <c r="C889" t="n">
+        <v>0.1949</v>
+      </c>
+      <c r="D889" t="n">
+        <v>0.1832</v>
+      </c>
+      <c r="E889" t="n">
+        <v>0.1917</v>
+      </c>
+      <c r="F889" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G889" t="b">
+        <v>1</v>
+      </c>
+      <c r="H889" t="n">
+        <v>3</v>
+      </c>
+      <c r="I889" t="n">
+        <v/>
+      </c>
+      <c r="J889" t="n">
+        <v/>
+      </c>
+      <c r="K889" t="n">
+        <v/>
+      </c>
+      <c r="L889" t="n">
+        <v/>
+      </c>
+      <c r="M889" t="n">
+        <v/>
+      </c>
+      <c r="N889" t="n">
+        <v/>
+      </c>
+      <c r="O889" t="n">
+        <v>0.3903</v>
+      </c>
+      <c r="P889" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="Q889" t="n">
+        <v>9.432903</v>
+      </c>
+      <c r="R889" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S889" t="n">
+        <v>6</v>
+      </c>
+      <c r="T889" t="n">
+        <v>0.218568</v>
+      </c>
+      <c r="U889" t="n">
+        <v>0.202956</v>
+      </c>
+      <c r="V889" t="n">
+        <v>0.179538</v>
+      </c>
+      <c r="W889" t="n">
+        <v>0.160023</v>
+      </c>
+      <c r="X889" t="n">
+        <v>0.136605</v>
+      </c>
+      <c r="Y889" t="n">
+        <v>0.109284</v>
+      </c>
+      <c r="Z889" t="n">
+        <v>0.08196299999999999</v>
+      </c>
+      <c r="AA889" t="n">
+        <v>0.074157</v>
+      </c>
+      <c r="AB889" t="n">
+        <v>0.213246</v>
+      </c>
+      <c r="AC889" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD889" t="n">
+        <v>0.08196299999999999</v>
+      </c>
+      <c r="AE889" t="n">
+        <v>0.1832</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B890" t="n">
+        <v>0.1918</v>
+      </c>
+      <c r="C890" t="n">
+        <v>0.2001</v>
+      </c>
+      <c r="D890" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="E890" t="n">
+        <v>0.1957</v>
+      </c>
+      <c r="F890" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G890" t="b">
+        <v>1</v>
+      </c>
+      <c r="H890" t="n">
+        <v>3</v>
+      </c>
+      <c r="I890" t="n">
+        <v/>
+      </c>
+      <c r="J890" t="n">
+        <v/>
+      </c>
+      <c r="K890" t="n">
+        <v/>
+      </c>
+      <c r="L890" t="n">
+        <v/>
+      </c>
+      <c r="M890" t="n">
+        <v/>
+      </c>
+      <c r="N890" t="n">
+        <v/>
+      </c>
+      <c r="O890" t="n">
+        <v>0.3903</v>
+      </c>
+      <c r="P890" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="Q890" t="n">
+        <v>12.352611</v>
+      </c>
+      <c r="R890" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S890" t="n">
+        <v>6</v>
+      </c>
+      <c r="T890" t="n">
+        <v>0.218568</v>
+      </c>
+      <c r="U890" t="n">
+        <v>0.202956</v>
+      </c>
+      <c r="V890" t="n">
+        <v>0.179538</v>
+      </c>
+      <c r="W890" t="n">
+        <v>0.160023</v>
+      </c>
+      <c r="X890" t="n">
+        <v>0.136605</v>
+      </c>
+      <c r="Y890" t="n">
+        <v>0.109284</v>
+      </c>
+      <c r="Z890" t="n">
+        <v>0.08196299999999999</v>
+      </c>
+      <c r="AA890" t="n">
+        <v>0.074157</v>
+      </c>
+      <c r="AB890" t="n">
+        <v>0.213246</v>
+      </c>
+      <c r="AC890" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD890" t="n">
+        <v>0.08196299999999999</v>
+      </c>
+      <c r="AE890" t="n">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B891" t="n">
+        <v>0.1958</v>
+      </c>
+      <c r="C891" t="n">
+        <v>0.2027</v>
+      </c>
+      <c r="D891" t="n">
+        <v>0.1941</v>
+      </c>
+      <c r="E891" t="n">
+        <v>0.1993</v>
+      </c>
+      <c r="F891" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G891" t="b">
+        <v>1</v>
+      </c>
+      <c r="H891" t="n">
+        <v>3</v>
+      </c>
+      <c r="I891" t="n">
+        <v/>
+      </c>
+      <c r="J891" t="n">
+        <v/>
+      </c>
+      <c r="K891" t="n">
+        <v/>
+      </c>
+      <c r="L891" t="n">
+        <v/>
+      </c>
+      <c r="M891" t="n">
+        <v/>
+      </c>
+      <c r="N891" t="n">
+        <v/>
+      </c>
+      <c r="O891" t="n">
+        <v>0.3903</v>
+      </c>
+      <c r="P891" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="Q891" t="n">
+        <v>13.812465</v>
+      </c>
+      <c r="R891" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S891" t="n">
+        <v>6</v>
+      </c>
+      <c r="T891" t="n">
+        <v>0.218568</v>
+      </c>
+      <c r="U891" t="n">
+        <v>0.202956</v>
+      </c>
+      <c r="V891" t="n">
+        <v>0.179538</v>
+      </c>
+      <c r="W891" t="n">
+        <v>0.160023</v>
+      </c>
+      <c r="X891" t="n">
+        <v>0.136605</v>
+      </c>
+      <c r="Y891" t="n">
+        <v>0.109284</v>
+      </c>
+      <c r="Z891" t="n">
+        <v>0.08196299999999999</v>
+      </c>
+      <c r="AA891" t="n">
+        <v>0.074157</v>
+      </c>
+      <c r="AB891" t="n">
+        <v>0.213246</v>
+      </c>
+      <c r="AC891" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD891" t="n">
+        <v>0.08196299999999999</v>
+      </c>
+      <c r="AE891" t="n">
+        <v>0.1941</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B892" t="n">
+        <v>0.1994</v>
+      </c>
+      <c r="C892" t="n">
+        <v>0.2069</v>
+      </c>
+      <c r="D892" t="n">
+        <v>0.1978</v>
+      </c>
+      <c r="E892" t="n">
+        <v>0.2053</v>
+      </c>
+      <c r="F892" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G892" t="b">
+        <v>1</v>
+      </c>
+      <c r="H892" t="n">
+        <v>3</v>
+      </c>
+      <c r="I892" t="n">
+        <v/>
+      </c>
+      <c r="J892" t="n">
+        <v/>
+      </c>
+      <c r="K892" t="n">
+        <v/>
+      </c>
+      <c r="L892" t="n">
+        <v/>
+      </c>
+      <c r="M892" t="n">
+        <v/>
+      </c>
+      <c r="N892" t="n">
+        <v/>
+      </c>
+      <c r="O892" t="n">
+        <v>0.3903</v>
+      </c>
+      <c r="P892" t="n">
+        <v>0.1781</v>
+      </c>
+      <c r="Q892" t="n">
+        <v>16.170691</v>
+      </c>
+      <c r="R892" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="S892" t="n">
+        <v>6</v>
+      </c>
+      <c r="T892" t="n">
+        <v>0.218568</v>
+      </c>
+      <c r="U892" t="n">
+        <v>0.202956</v>
+      </c>
+      <c r="V892" t="n">
+        <v>0.179538</v>
+      </c>
+      <c r="W892" t="n">
+        <v>0.160023</v>
+      </c>
+      <c r="X892" t="n">
+        <v>0.136605</v>
+      </c>
+      <c r="Y892" t="n">
+        <v>0.109284</v>
+      </c>
+      <c r="Z892" t="n">
+        <v>0.08196299999999999</v>
+      </c>
+      <c r="AA892" t="n">
+        <v>0.074157</v>
+      </c>
+      <c r="AB892" t="n">
+        <v>0.213246</v>
+      </c>
+      <c r="AC892" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AD892" t="n">
+        <v>0.202956</v>
+      </c>
+      <c r="AE892" t="n">
+        <v>0.1978</v>
       </c>
     </row>
   </sheetData>
